--- a/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_DASHBOARD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_DASHBOARD.xlsx
@@ -43,7 +43,7 @@
     <t>As of date: Jun, 2022</t>
   </si>
   <si>
-    <t>Printed on: 2022-08-08 15:21</t>
+    <t>Printed on: 2022-08-09 10:33</t>
   </si>
   <si>
     <t>Previous Cycle: Mar, 2022</t>
@@ -322,7 +322,7 @@
   </si>
   <si>
     <t xml:space="preserve">Earnings-at-Risk (EaR)
- NII: 6,033
+ NII: 6,041
  12 months horizon</t>
   </si>
   <si>
@@ -389,7 +389,7 @@
   </si>
   <si>
     <t xml:space="preserve">Earnings-at-Risk (EaR)
- NII: 12,018
+ NII: 12,039
  24 months horizon</t>
   </si>
   <si>
@@ -2719,13 +2719,13 @@
       </c>
       <c r="J23" s="45"/>
       <c r="K23" s="58">
-        <v>1.8975711344933501</v>
+        <v>5.5368250221911</v>
       </c>
       <c r="L23" s="15">
         <v>15.4542992955618</v>
       </c>
       <c r="M23" s="15">
-        <v>-13.556728161068449</v>
+        <v>-9.9174742733707</v>
       </c>
     </row>
     <row r="24">
@@ -2791,13 +2791,13 @@
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="59">
-        <v>4.28673935169479</v>
+        <v>4.29268862232962</v>
       </c>
       <c r="L25" s="15">
         <v>4.02611782290501</v>
       </c>
       <c r="M25" s="15">
-        <v>0.26062152878977951</v>
+        <v>0.26657079942460982</v>
       </c>
     </row>
     <row r="26" ht="15">
@@ -2827,13 +2827,13 @@
       </c>
       <c r="J26" s="45"/>
       <c r="K26" s="60">
-        <v>6032.74422573148</v>
+        <v>6041.18712802397</v>
       </c>
       <c r="L26" s="28">
         <v>5747.2259590127</v>
       </c>
       <c r="M26" s="28">
-        <v>285.51826671878007</v>
+        <v>293.96116901127061</v>
       </c>
     </row>
     <row r="27">
@@ -2863,13 +2863,13 @@
       </c>
       <c r="J27" s="45"/>
       <c r="K27" s="60">
-        <v>1699.54143318345</v>
+        <v>1706.04969935552</v>
       </c>
       <c r="L27" s="28">
         <v>1683.76076848398</v>
       </c>
       <c r="M27" s="28">
-        <v>15.78066469946998</v>
+        <v>22.28893087154006</v>
       </c>
     </row>
     <row r="28">
@@ -2899,13 +2899,13 @@
       </c>
       <c r="J28" s="45"/>
       <c r="K28" s="58">
-        <v>-0.719504578458133</v>
+        <v>-0.72225986715966106</v>
       </c>
       <c r="L28" s="15">
         <v>-0.715986742686374</v>
       </c>
       <c r="M28" s="15">
-        <v>-0.0035178357717590147</v>
+        <v>-0.006273124473287095</v>
       </c>
     </row>
     <row r="29">
@@ -3025,7 +3025,7 @@
         <v>400</v>
       </c>
       <c r="D35" s="19">
-        <v>0.0189757113449335</v>
+        <v>0.055368250221911</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>57</v>
@@ -3049,7 +3049,7 @@
         <v>300</v>
       </c>
       <c r="D36" s="19">
-        <v>0.0138766752669398</v>
+        <v>0.0417571363809182</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>57</v>
@@ -3073,7 +3073,7 @@
         <v>200</v>
       </c>
       <c r="D37" s="19">
-        <v>0.00895147108228869</v>
+        <v>0.0280698454389906</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>57</v>
@@ -3105,7 +3105,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="19">
-        <v>0.00429802154285749</v>
+        <v>0.0146942239331336</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>57</v>
@@ -3163,7 +3163,7 @@
         <v>-100</v>
       </c>
       <c r="D40" s="19">
-        <v>-0.00378084266528205</v>
+        <v>-0.0196323846413507</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>57</v>
@@ -3195,7 +3195,7 @@
         <v>-200</v>
       </c>
       <c r="D41" s="19">
-        <v>-0.00817062498861382</v>
+        <v>-0.042102068983823</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>57</v>
@@ -3249,7 +3249,7 @@
         <v>67</v>
       </c>
       <c r="D43" s="19">
-        <v>0.015523219436307</v>
+        <v>0.033183586290149</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>57</v>
@@ -3309,7 +3309,7 @@
         <v>400</v>
       </c>
       <c r="D45" s="19">
-        <v>-0.0174497353980319</v>
+        <v>0.0749918290904412</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>57</v>
@@ -3341,7 +3341,7 @@
         <v>300</v>
       </c>
       <c r="D46" s="19">
-        <v>-0.0137309872224401</v>
+        <v>0.0570579264458678</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>57</v>
@@ -3373,7 +3373,7 @@
         <v>200</v>
       </c>
       <c r="D47" s="19">
-        <v>-0.00972852634301304</v>
+        <v>0.0388009375330393</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>57</v>
@@ -3405,7 +3405,7 @@
         <v>100</v>
       </c>
       <c r="D48" s="19">
-        <v>-0.00522064908989859</v>
+        <v>0.0210579997353855</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>57</v>
@@ -3463,7 +3463,7 @@
         <v>-100</v>
       </c>
       <c r="D50" s="19">
-        <v>0.00608261742153634</v>
+        <v>-0.032267901729993</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>57</v>
@@ -3495,7 +3495,7 @@
         <v>-200</v>
       </c>
       <c r="D51" s="19">
-        <v>0.010954791622365</v>
+        <v>-0.0668035351455978</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>57</v>
@@ -3541,7 +3541,7 @@
         <v>67</v>
       </c>
       <c r="D53" s="19">
-        <v>-0.0105000015861884</v>
+        <v>0.026344536912559</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>57</v>
@@ -3842,17 +3842,17 @@
         <v>14352.2089731281</v>
       </c>
       <c r="G66" s="42">
-        <v>14513.9112942656</v>
+        <v>14513.9336203399</v>
       </c>
       <c r="H66" s="42"/>
       <c r="I66" s="16">
-        <v>14660.3271332982</v>
+        <v>14660.4384246222</v>
       </c>
       <c r="J66" s="16">
-        <v>14812.2123019109</v>
+        <v>14812.5487450305</v>
       </c>
       <c r="K66" s="16">
-        <v>14962.4991453257</v>
+        <v>14963.2030493779</v>
       </c>
     </row>
     <row r="67">
@@ -3865,20 +3865,20 @@
         <v>6.0920294345732</v>
       </c>
       <c r="F67" s="16">
-        <v>6.22486504411019</v>
+        <v>6.22419326398451</v>
       </c>
       <c r="G67" s="42">
-        <v>6.39666419874646</v>
+        <v>6.39509476274408</v>
       </c>
       <c r="H67" s="42"/>
       <c r="I67" s="16">
-        <v>6.74489700438841</v>
+        <v>6.7427256076272</v>
       </c>
       <c r="J67" s="16">
-        <v>7.16877291450654</v>
+        <v>7.16521134380898</v>
       </c>
       <c r="K67" s="16">
-        <v>7.08857312013535</v>
+        <v>7.08486841190186</v>
       </c>
     </row>
     <row r="68">
@@ -3891,20 +3891,20 @@
         <v>1158.11900302462</v>
       </c>
       <c r="F68" s="16">
-        <v>1188.54738028281</v>
+        <v>1188.52251585955</v>
       </c>
       <c r="G68" s="42">
-        <v>1341.47092688575</v>
+        <v>1341.43932618435</v>
       </c>
       <c r="H68" s="42"/>
       <c r="I68" s="16">
-        <v>1483.7849818018</v>
+        <v>1483.8262103777</v>
       </c>
       <c r="J68" s="16">
-        <v>1678.69800515494</v>
+        <v>1678.92945516993</v>
       </c>
       <c r="K68" s="16">
-        <v>1559.80074492509</v>
+        <v>1560.0806163257</v>
       </c>
     </row>
     <row r="69">
@@ -3969,20 +3969,20 @@
         <v>128.208973128039</v>
       </c>
       <c r="F71" s="16">
-        <v>161.702322155933</v>
+        <v>161.724648227069</v>
       </c>
       <c r="G71" s="42">
-        <v>146.415838835927</v>
+        <v>146.504804165069</v>
       </c>
       <c r="H71" s="42"/>
       <c r="I71" s="16">
-        <v>151.885169746166</v>
+        <v>152.110321463876</v>
       </c>
       <c r="J71" s="16">
-        <v>150.286840704401</v>
+        <v>150.654301602999</v>
       </c>
       <c r="K71" s="16">
-        <v>145.593085950238</v>
+        <v>146.089363721002</v>
       </c>
     </row>
     <row r="72">
@@ -4021,20 +4021,20 @@
         <v>18378.7364156188</v>
       </c>
       <c r="F73" s="16">
-        <v>18568.63862597</v>
+        <v>18568.6354158377</v>
       </c>
       <c r="G73" s="42">
-        <v>18866.5412263434</v>
+        <v>18866.6193476094</v>
       </c>
       <c r="H73" s="42"/>
       <c r="I73" s="16">
-        <v>21223.1380584579</v>
+        <v>21223.5135586788</v>
       </c>
       <c r="J73" s="16">
-        <v>21548.6896590639</v>
+        <v>21549.6214515264</v>
       </c>
       <c r="K73" s="16">
-        <v>21559.7176647388</v>
+        <v>21561.1940132542</v>
       </c>
     </row>
     <row r="74">
@@ -4047,20 +4047,20 @@
         <v>6.10006228600405</v>
       </c>
       <c r="F74" s="16">
-        <v>6.23677526600554</v>
+        <v>6.23610348566876</v>
       </c>
       <c r="G74" s="42">
-        <v>6.41280389868045</v>
+        <v>6.41123446288967</v>
       </c>
       <c r="H74" s="42"/>
       <c r="I74" s="16">
-        <v>6.7680289249646</v>
+        <v>6.76585752817165</v>
       </c>
       <c r="J74" s="16">
-        <v>7.1921080563774</v>
+        <v>7.18854648568189</v>
       </c>
       <c r="K74" s="16">
-        <v>7.12165697173952</v>
+        <v>7.11795226341901</v>
       </c>
     </row>
     <row r="75">
@@ -4073,20 +4073,20 @@
         <v>1174.9827252506</v>
       </c>
       <c r="F75" s="16">
-        <v>1206.07805119566</v>
+        <v>1206.05318692106</v>
       </c>
       <c r="G75" s="42">
-        <v>1359.82579789457</v>
+        <v>1359.79419682029</v>
       </c>
       <c r="H75" s="42"/>
       <c r="I75" s="16">
-        <v>1503.27863578903</v>
+        <v>1503.31985973362</v>
       </c>
       <c r="J75" s="16">
-        <v>1699.88095152595</v>
+        <v>1700.11238713274</v>
       </c>
       <c r="K75" s="16">
-        <v>1583.70991686974</v>
+        <v>1583.98978873014</v>
       </c>
     </row>
     <row r="76">
@@ -4151,20 +4151,20 @@
         <v>-16.8717550774473</v>
       </c>
       <c r="F78" s="16">
-        <v>-17.5425811425238</v>
+        <v>-17.5425812941174</v>
       </c>
       <c r="G78" s="42">
-        <v>-18.3710107164067</v>
+        <v>-18.371010264334</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="16">
-        <v>-19.5167858981147</v>
+        <v>-19.5167813446649</v>
       </c>
       <c r="J78" s="16">
-        <v>-21.2062815210869</v>
+        <v>-21.2062671470222</v>
       </c>
       <c r="K78" s="16">
-        <v>-23.9422558799438</v>
+        <v>-23.9422561439275</v>
       </c>
     </row>
     <row r="79">
@@ -4203,20 +4203,20 @@
         <v>4026.5274424908</v>
       </c>
       <c r="F80" s="16">
-        <v>4054.72733170439</v>
+        <v>4054.70179549789</v>
       </c>
       <c r="G80" s="42">
-        <v>4206.21409304508</v>
+        <v>4206.18092298716</v>
       </c>
       <c r="H80" s="42"/>
       <c r="I80" s="16">
-        <v>6410.92575654707</v>
+        <v>6410.96481364832</v>
       </c>
       <c r="J80" s="16">
-        <v>6586.19051373821</v>
+        <v>6586.41840214848</v>
       </c>
       <c r="K80" s="16">
-        <v>6451.62543490173</v>
+        <v>6451.90160178976</v>
       </c>
     </row>
     <row r="81">
@@ -4229,20 +4229,20 @@
         <v>4.56441354942059</v>
       </c>
       <c r="F81" s="30">
-        <v>4.57950365263272</v>
+        <v>4.57953170229565</v>
       </c>
       <c r="G81" s="43">
-        <v>4.4853972738903</v>
+        <v>4.48545121882457</v>
       </c>
       <c r="H81" s="43"/>
       <c r="I81" s="30">
-        <v>3.31046386503293</v>
+        <v>3.3105022684723</v>
       </c>
       <c r="J81" s="30">
-        <v>3.27179871491952</v>
+        <v>3.27182698331114</v>
       </c>
       <c r="K81" s="30">
-        <v>3.34174974698716</v>
+        <v>3.341835530671</v>
       </c>
     </row>
     <row r="83" ht="28.5" customHeight="1">
